--- a/results.xlsx
+++ b/results.xlsx
@@ -7,23 +7,31 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si/>
   <si>
     <t>Table 1</t>
   </si>
   <si>
-    <t>Processors</t>
+    <t>Threads</t>
   </si>
   <si>
     <t>Time (s)</t>
   </si>
   <si>
     <t>Extra computation</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Speedup Extra Computation</t>
   </si>
   <si>
     <t>Average time over 10 runs</t>
@@ -48,13 +56,30 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <shadow val="1"/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <shadow val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -75,13 +100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -96,106 +121,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -205,7 +230,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -215,13 +240,13 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -233,7 +258,7 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -249,6 +274,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -268,6 +296,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="fffefefe"/>
+      <rgbColor rgb="ffb8b8b8"/>
+      <rgbColor rgb="ff51a7f9"/>
+      <rgbColor rgb="ff6fbf40"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -275,6 +307,1012 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:rPr>
+              <a:t>Speedup Vs. Number of Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.297856"/>
+          <c:y val="0"/>
+          <c:w val="0.404287"/>
+          <c:h val="0.0846906"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.128113"/>
+          <c:y val="0.0846906"/>
+          <c:w val="0.857901"/>
+          <c:h val="0.790432"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="51A7F9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="51A7F9"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="tl" rotWithShape="1" blurRad="63500" dist="38100" dir="5273901">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="100000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet 1'!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.018935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.025000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.025000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.997683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.941292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup Extra Computation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="70BF41"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="70BF41"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="tl" rotWithShape="1" blurRad="63500" dist="38100" dir="5273901">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="100000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet 1'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.062299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.069189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.080874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.053248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.991976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2094734552"/>
+        <c:axId val="2094734553"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2094734552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734553"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2094734553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="B8B8B8"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.075"/>
+        <c:minorUnit val="0.0375"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.128113"/>
+          <c:y val="0.581331"/>
+          <c:w val="0.830639"/>
+          <c:h val="0.0640879"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:rPr>
+              <a:t>Speedup vs. Number of Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.300168"/>
+          <c:y val="0"/>
+          <c:w val="0.399664"/>
+          <c:h val="0.0846906"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.128113"/>
+          <c:y val="0.0846906"/>
+          <c:w val="0.857901"/>
+          <c:h val="0.790432"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="51A7F9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="51A7F9"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="tl" rotWithShape="1" blurRad="63500" dist="38100" dir="5273901">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="100000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet 2'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet 2'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.018277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.083333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.071429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.970149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.924171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2094734552"/>
+        <c:axId val="2094734553"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2094734552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734553"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2094734553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="B8B8B8"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.075"/>
+        <c:minorUnit val="0.0375"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0846806"/>
+          <c:y val="0.605527"/>
+          <c:w val="0.830639"/>
+          <c:h val="0.0640879"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1240472</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>521669</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1186179</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8708072" y="1354454"/>
+        <a:ext cx="5504198" cy="3898901"/>
+      </xdr:xfrm>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>363202</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>58419</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1607802" y="3092449"/>
+        <a:ext cx="5504199" cy="3898901"/>
+      </xdr:xfrm>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,7 +2423,7 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1394,19 +2432,23 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
+    <row r="2" ht="32.55" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" t="s" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="4">
+        <v>6</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" ht="20.55" customHeight="1">
@@ -1420,8 +2462,12 @@
       <c r="D3" s="7">
         <v>0.989</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
@@ -1435,8 +2481,12 @@
       <c r="D4" s="11">
         <v>0.931</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="11">
+        <v>1.018934911242604</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1.062298603651987</v>
+      </c>
       <c r="G4" s="12"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
@@ -1450,8 +2500,12 @@
       <c r="D5" s="11">
         <v>0.925</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="11">
+        <v>1.025</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.069189189189189</v>
+      </c>
       <c r="G5" s="12"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
@@ -1465,8 +2519,12 @@
       <c r="D6" s="11">
         <v>0.915</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="11">
+        <v>1.025</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1.080874316939891</v>
+      </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
@@ -1480,8 +2538,12 @@
       <c r="D7" s="11">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="11">
+        <v>0.9976825028968713</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1.053248136315229</v>
+      </c>
       <c r="G7" s="12"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
@@ -1495,8 +2557,12 @@
       <c r="D8" s="11">
         <v>0.997</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="11">
+        <v>0.941292226959659</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.9919759277833501</v>
+      </c>
       <c r="G8" s="12"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
@@ -1512,7 +2578,7 @@
       <c r="A10" s="9"/>
       <c r="B10" s="13"/>
       <c r="C10" t="s" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1523,7 +2589,7 @@
       <c r="A11" s="9"/>
       <c r="B11" s="13"/>
       <c r="C11" t="s" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1534,7 +2600,7 @@
       <c r="A12" s="9"/>
       <c r="B12" s="13"/>
       <c r="C12" t="s" s="14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1545,7 +2611,7 @@
       <c r="A13" s="9"/>
       <c r="B13" s="13"/>
       <c r="C13" t="s" s="14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1556,7 +2622,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="13"/>
       <c r="C14" t="s" s="14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1653,5 +2719,160 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="15" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.55" customHeight="1">
+      <c r="A1" s="3"/>
+      <c r="B1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.383</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1.018276762402089</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.364</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.402</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.9701492537313433</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.422</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.9241706161137442</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -6,8 +6,9 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Rectify - Rectify" sheetId="1" r:id="rId4"/>
+    <sheet name="Pooling" sheetId="2" r:id="rId5"/>
+    <sheet name="Convolution" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -16,7 +17,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si/>
   <si>
-    <t>Table 1</t>
+    <t>Rectify</t>
   </si>
   <si>
     <t>Threads</t>
@@ -230,7 +231,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -274,6 +275,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -377,7 +381,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$E$2</c:f>
+              <c:f>'Rectify - Rectify'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -450,7 +454,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$B$8</c:f>
+              <c:f>'Rectify - Rectify'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -476,7 +480,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$E$3:$E$8</c:f>
+              <c:f>'Rectify - Rectify'!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -507,7 +511,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$F$2</c:f>
+              <c:f>'Rectify - Rectify'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -580,7 +584,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$B$8</c:f>
+              <c:f>'Rectify - Rectify'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -606,7 +610,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 1'!$F$3:$F$8</c:f>
+              <c:f>'Rectify - Rectify'!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -910,7 +914,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 2'!$D$1</c:f>
+              <c:f>'Pooling'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -983,7 +987,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet 2'!$B$2:$B$7</c:f>
+              <c:f>'Pooling'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1009,7 +1013,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet 2'!$D$2:$D$7</c:f>
+              <c:f>'Pooling'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1245,6 +1249,409 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:rPr>
+              <a:t>Speedup Vs. Number of Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.295229"/>
+          <c:y val="0"/>
+          <c:w val="0.409543"/>
+          <c:h val="0.0846906"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.116779"/>
+          <c:y val="0.0846906"/>
+          <c:w val="0.869053"/>
+          <c:h val="0.790432"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Convolution'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="51A7F9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="51A7F9"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="tl" rotWithShape="1" blurRad="63500" dist="38100" dir="5273901">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="100000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Convolution'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Convolution'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.989710</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.332144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.314166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.318809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.313065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2094734552"/>
+        <c:axId val="2094734553"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2094734552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734553"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2094734553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="B8B8B8"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.35"/>
+        <c:minorUnit val="0.175"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.130588"/>
+          <c:y val="0.351842"/>
+          <c:w val="0.841436"/>
+          <c:h val="0.0640879"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
@@ -1252,7 +1659,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1240472</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>163195</xdr:rowOff>
+      <xdr:rowOff>163194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -1301,8 +1708,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1607802" y="3092449"/>
-        <a:ext cx="5504199" cy="3898901"/>
+        <a:off x="1607802" y="3092450"/>
+        <a:ext cx="5504198" cy="3898900"/>
+      </xdr:xfrm>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>738243</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1193409</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="738243" y="3630929"/>
+        <a:ext cx="5433567" cy="3898901"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2875,4 +3317,147 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="16" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.55" customHeight="1">
+      <c r="A1" s="3"/>
+      <c r="B1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.5678</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.5481</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.9897102455653052</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.1769</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.332143767524854</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1.193</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1.314165968147527</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.1888</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1.318808882907133</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1.194</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.313065326633166</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>